--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8803DFBF-8FB8-4EF9-92DD-D550BF3DF763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC05400-C424-4E6F-B21E-A7FB1C97962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1402D74-4AB6-4804-BD75-5AE34C39A27D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1402D74-4AB6-4804-BD75-5AE34C39A27D}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaTypeTable" sheetId="1" r:id="rId1"/>
+    <sheet name="EventPointTypeTable" sheetId="2" r:id="rId2"/>
+    <sheet name="EventPointRewardTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>결과 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>에너지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +144,105 @@
   <si>
     <t>확률참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상밸류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상밸류2</t>
+  </si>
+  <si>
+    <t>보상수량2</t>
+  </si>
+  <si>
+    <t>요구이벤트포인트량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫시작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상타입애디셔널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 이벤트요구량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫성장재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬뽑기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료뽑기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비뽑기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectLen_1|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectLen_2|Float</t>
+  </si>
+  <si>
+    <t>effectLen_3|Float</t>
+  </si>
+  <si>
+    <t>effectLen_4|Float</t>
   </si>
 </sst>
 </file>
@@ -501,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC9E647-E992-4DEF-9DE9-D76D0BAA9C48}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -514,329 +619,1155 @@
     <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1.5</v>
       </c>
       <c r="E2">
-        <f>D2/SUM(D:D)</f>
+        <f t="shared" ref="E2:E12" si="0">D2/SUM(D:D)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1.5</v>
       </c>
       <c r="E3">
-        <f>D3/SUM(D:D)</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <f>D4/SUM(D:D)</f>
+        <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <f>D5/SUM(D:D)</f>
+        <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <f>D6/SUM(D:D)</f>
+        <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0.5</v>
       </c>
       <c r="E7">
-        <f>D7/SUM(D:D)</f>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1.5</v>
       </c>
       <c r="E8">
-        <f>D8/SUM(D:D)</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>1.5</v>
       </c>
       <c r="E9">
-        <f>D9/SUM(D:D)</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <f>D10/SUM(D:D)</f>
+        <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>1.5</v>
       </c>
       <c r="E11">
-        <f>D11/SUM(D:D)</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>1.5</v>
       </c>
       <c r="E12">
-        <f>D12/SUM(D:D)</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E21" si="0">D13/SUM(D:D)</f>
+        <f t="shared" ref="E13:E21" si="1">D13/SUM(D:D)</f>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
+    <row r="22" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32705EE7-2711-4B03-B370-32CB8C9B4DCF}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F68268-BCC5-463A-AA9E-1F9126D7E42C}">
+  <dimension ref="A1:X49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3">
+        <v>1000</v>
+      </c>
+      <c r="V3">
+        <v>1200</v>
+      </c>
+      <c r="W3">
+        <v>30</v>
+      </c>
+      <c r="X3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>600</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5CFA66-7DF3-4950-AD52-CE386E96A834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63800B2C-53CB-47C1-91A2-9DD42ABAAA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
@@ -472,19 +472,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA5B2EA-6544-40D3-B1ED-0FD4B8BAA222}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" collapsed="1"/>
-    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9" collapsed="1"/>
+    <col min="4" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -544,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C11" si="0">D3
+        <f t="shared" ref="C3:C8" si="0">D3
 &amp;", "&amp;E3
 &amp;", "&amp;F3</f>
         <v>0, 0, 0.02</v>
@@ -574,58 +572,58 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0.02, 0.04</v>
+        <v>0, 0.025, 0.07</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0.045, 0.06</v>
+        <v>0.075, 0.1, 0.15</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E5">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0.07, 0.08</v>
+        <v>0.125, 0.175, 0.2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F6">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -633,20 +631,20 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>0.025, 0.05, 0.1</v>
+        <v>0.3, 0.25, 0.2</v>
       </c>
       <c r="D7">
-        <v>2.5000000000000001E-2</v>
+        <v>0.3</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -654,103 +652,39 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>0.075, 0.01, 0.13</v>
+        <v>0.5, 0.45, 0.35</v>
       </c>
       <c r="D8">
-        <v>7.4999999999999997E-2</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
       <c r="F8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>0.1, 0.155, 0.16</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>0.155</v>
-      </c>
-      <c r="F9">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>0.3, 0.25, 0.19</v>
-      </c>
-      <c r="D10">
-        <v>0.3</v>
-      </c>
-      <c r="E10">
-        <v>0.25</v>
-      </c>
-      <c r="F10">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>0.5, 0.4, 0.21</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11">
-        <v>0.4</v>
-      </c>
-      <c r="F11">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="str">
-        <f>IF(SUM(D2:D11)=1,"",SUM(D2:D11)&amp;": 합 이상")</f>
+      <c r="D9" s="1" t="str">
+        <f>IF(SUM(D2:D8)=1,"",SUM(D2:D8)&amp;": 합 이상")</f>
         <v/>
       </c>
-      <c r="E12" s="1" t="str">
-        <f>IF(SUM(E2:E11)=1,"",SUM(E2:E11)&amp;": 합이상")</f>
+      <c r="E9" s="1" t="str">
+        <f>IF(SUM(E2:E8)=1,"",SUM(E2:E8)&amp;": 합이상")</f>
         <v/>
       </c>
-      <c r="F12" s="1" t="str">
-        <f>IF(SUM(F2:F11)=1,"",SUM(F2:F11)&amp;": 합이상")</f>
+      <c r="F9" s="1" t="str">
+        <f>IF(SUM(F2:F8)=1,"",SUM(F2:F8)&amp;": 합이상")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63800B2C-53CB-47C1-91A2-9DD42ABAAA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252C5C2C-6027-41D2-8CF9-D6703F5CF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
-    <sheet name="GachaActorTable" sheetId="2" r:id="rId2"/>
-    <sheet name="GachaEquipTable" sheetId="3" r:id="rId3"/>
+    <sheet name="ShopSpellTable" sheetId="4" r:id="rId2"/>
+    <sheet name="GachaActorTable" sheetId="2" r:id="rId3"/>
+    <sheet name="GachaEquipTable" sheetId="3" r:id="rId4"/>
+    <sheet name="ShopEquipTable" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>grade|Int</t>
   </si>
@@ -97,6 +99,82 @@
   </si>
   <si>
     <t>probs|float!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비10회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수장비1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수장비10회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50회연속특수기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S급 에픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200회연속특수기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shpSpell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,9 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA5B2EA-6544-40D3-B1ED-0FD4B8BAA222}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -693,6 +769,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D409E20-4BA2-4A44-9152-3AB980159ACB}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" outlineLevel="1"/>
+    <col min="8" max="8" width="9" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>20000</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E4" ca="1" si="0">IF(ROW()=2,F2,OFFSET(E2,-1,0)&amp;IF(LEN(F2)=0,"",","&amp;F2))</f>
+        <v>"2":20000</v>
+      </c>
+      <c r="F2" t="str">
+        <f>""""&amp;$C2&amp;""""&amp;""&amp;":"&amp;D2</f>
+        <v>"2":20000</v>
+      </c>
+      <c r="H2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(E1,COUNTA(E:E)-1,0),1)=",",SUBSTITUTE(OFFSET(E1,COUNTA(E:E)-1,0),",","",1),OFFSET(E1,COUNTA(E:E)-1,0))
+&amp;"}"</f>
+        <v>{"2":20000,"10":90000,"50":400000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>90000</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"2":20000,"10":90000</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F4" si="1">""""&amp;$C3&amp;""""&amp;""&amp;":"&amp;D3</f>
+        <v>"10":90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>400000</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"2":20000,"10":90000,"50":400000</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>"50":400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -817,7 +1009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AFCA06-935E-4F88-BB53-C1852D3947A3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -865,4 +1057,93 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD48CC8-8B1A-494D-9B5E-6343713E47F3}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252C5C2C-6027-41D2-8CF9-D6703F5CF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE310093-6CCA-4A7E-B040-7DC307C4BB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
     <sheet name="ShopSpellTable" sheetId="4" r:id="rId2"/>
     <sheet name="GachaActorTable" sheetId="2" r:id="rId3"/>
-    <sheet name="GachaEquipTable" sheetId="3" r:id="rId4"/>
-    <sheet name="ShopEquipTable" sheetId="5" r:id="rId5"/>
+    <sheet name="ShopActorTable" sheetId="6" r:id="rId4"/>
+    <sheet name="GachaEquipTable" sheetId="3" r:id="rId5"/>
+    <sheet name="ShopEquipTable" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>grade|Int</t>
   </si>
@@ -175,6 +176,26 @@
   </si>
   <si>
     <t>shpSpell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shpActor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D409E20-4BA2-4A44-9152-3AB980159ACB}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -888,9 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1010,6 +1029,122 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CABF405-75D3-4FD5-A068-903C749D568E}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="5" max="6" width="9" outlineLevel="1"/>
+    <col min="8" max="8" width="9" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E4" ca="1" si="0">IF(ROW()=2,F2,OFFSET(E2,-1,0)&amp;IF(LEN(F2)=0,"",","&amp;F2))</f>
+        <v>"1":10000</v>
+      </c>
+      <c r="F2" t="str">
+        <f>""""&amp;$C2&amp;""""&amp;""&amp;":"&amp;D2</f>
+        <v>"1":10000</v>
+      </c>
+      <c r="H2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(E1,COUNTA(E:E)-1,0),1)=",",SUBSTITUTE(OFFSET(E1,COUNTA(E:E)-1,0),",","",1),OFFSET(E1,COUNTA(E:E)-1,0))
+&amp;"}"</f>
+        <v>{"1":10000,"10":90000,"50":400000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>90000</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"1":10000,"10":90000</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F4" si="1">""""&amp;$C3&amp;""""&amp;""&amp;":"&amp;D3</f>
+        <v>"10":90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>400000</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"1":10000,"10":90000,"50":400000</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>"50":400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AFCA06-935E-4F88-BB53-C1852D3947A3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1059,7 +1194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD48CC8-8B1A-494D-9B5E-6343713E47F3}">
   <dimension ref="A1:F5"/>
   <sheetViews>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE310093-6CCA-4A7E-B040-7DC307C4BB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F464AC-9CB3-4B37-93E1-CFDC7C4C342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>grade|Int</t>
   </si>
@@ -59,38 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor_물음표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐 증가 이벤트 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급업확률|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭업확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor_메디아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor메디아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭업액터아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글로벌 스트링 상수에 넣어야 한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>probs|float!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +160,53 @@
   </si>
   <si>
     <t>shpActor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probCount0|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probs|Float!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probCount1|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prob|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probCount2|Float</t>
+  </si>
+  <si>
+    <t>probCount3|Float</t>
+  </si>
+  <si>
+    <t>probCount4|Float</t>
+  </si>
+  <si>
+    <t>probCount5|Float</t>
+  </si>
+  <si>
+    <t>probCount6|Float</t>
+  </si>
+  <si>
+    <t>probCount7|Float</t>
+  </si>
+  <si>
+    <t>probCount8|Float</t>
+  </si>
+  <si>
+    <t>probCount9|Float</t>
+  </si>
+  <si>
+    <t>probCount10|Float</t>
+  </si>
+  <si>
+    <t>adjustProbs|Float!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA5B2EA-6544-40D3-B1ED-0FD4B8BAA222}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -590,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -628,7 +641,7 @@
         <v>0.01</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -767,7 +780,7 @@
     </row>
     <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>IF(SUM(D2:D8)=1,"",SUM(D2:D8)&amp;": 합 이상")</f>
@@ -806,33 +819,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -857,10 +870,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -879,10 +892,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -907,124 +920,218 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="14" width="9" outlineLevel="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="b">
+      <c r="B2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C2" t="str">
+        <f>D2
+&amp;", "&amp;E2
+&amp;", "&amp;F2
+&amp;", "&amp;G2
+&amp;", "&amp;H2
+&amp;", "&amp;I2
+&amp;", "&amp;J2
+&amp;", "&amp;K2
+&amp;", "&amp;L2
+&amp;", "&amp;M2
+&amp;", "&amp;N2</f>
+        <v>0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B3">
+        <v>0.04</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">D3
+&amp;", "&amp;E3
+&amp;", "&amp;F3
+&amp;", "&amp;G3
+&amp;", "&amp;H3
+&amp;", "&amp;I3
+&amp;", "&amp;J3
+&amp;", "&amp;K3
+&amp;", "&amp;L3
+&amp;", "&amp;M3
+&amp;", "&amp;N3</f>
+        <v>0, 0, 0, 0, 0, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04</v>
       </c>
       <c r="D3">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.04</v>
+      </c>
+      <c r="J3">
+        <v>0.04</v>
+      </c>
+      <c r="K3">
+        <v>0.04</v>
+      </c>
+      <c r="L3">
+        <v>0.04</v>
+      </c>
+      <c r="M3">
+        <v>0.04</v>
+      </c>
+      <c r="N3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.16</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>1, 0.9, 0.8, 0.7, 0.6, 0.5, 0.4, 0.3, 0.2, 0.16, 0.16</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0.45</v>
-      </c>
       <c r="E4">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="F4">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>1-D4-D3</f>
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="E5">
-        <f>1-E4-E3</f>
-        <v>0.54</v>
-      </c>
-      <c r="F5">
-        <f>1-F4-F3-F2</f>
-        <v>0.53500000000000003</v>
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>0.6</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.4</v>
+      </c>
+      <c r="K4">
+        <v>0.3</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4">
+        <v>0.16</v>
+      </c>
+      <c r="N4">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1032,7 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CABF405-75D3-4FD5-A068-903C749D568E}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1044,33 +1153,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1095,10 +1204,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1117,10 +1226,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -1209,30 +1318,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1243,10 +1352,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1257,24 +1366,24 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F464AC-9CB3-4B37-93E1-CFDC7C4C342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F93AC-FB9A-4BB2-BFF4-92A5AFBA3F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>grade|Int</t>
   </si>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>count|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,14 +144,6 @@
   </si>
   <si>
     <t>Actor10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -603,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -804,110 +792,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D409E20-4BA2-4A44-9152-3AB980159ACB}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" outlineLevel="1"/>
-    <col min="8" max="8" width="9" outlineLevel="1"/>
+    <col min="4" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
         <v>20000</v>
       </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D4" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
+        <v>"2":20000</v>
+      </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E4" ca="1" si="0">IF(ROW()=2,F2,OFFSET(E2,-1,0)&amp;IF(LEN(F2)=0,"",","&amp;F2))</f>
+        <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
         <v>"2":20000</v>
       </c>
-      <c r="F2" t="str">
-        <f>""""&amp;$C2&amp;""""&amp;""&amp;":"&amp;D2</f>
-        <v>"2":20000</v>
-      </c>
-      <c r="H2" t="str">
+      <c r="G2" t="str">
         <f ca="1">"{"&amp;
-IF(LEFT(OFFSET(E1,COUNTA(E:E)-1,0),1)=",",SUBSTITUTE(OFFSET(E1,COUNTA(E:E)-1,0),",","",1),OFFSET(E1,COUNTA(E:E)-1,0))
+IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
         <v>{"2":20000,"10":90000,"50":400000}</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3">
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
         <v>90000</v>
       </c>
-      <c r="E3" t="str">
+      <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>"2":20000,"10":90000</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F4" si="1">""""&amp;$C3&amp;""""&amp;""&amp;":"&amp;D3</f>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="1">""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
         <v>"10":90000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
+      <c r="B4">
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
         <v>400000</v>
       </c>
-      <c r="E4" t="str">
+      <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>"2":20000,"10":90000,"50":400000</v>
       </c>
-      <c r="F4" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="1"/>
         <v>"50":400000</v>
       </c>
@@ -922,10 +896,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="46.375" customWidth="1"/>
     <col min="4" max="14" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -934,43 +911,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1137,113 +1114,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CABF405-75D3-4FD5-A068-903C749D568E}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="5" max="6" width="9" outlineLevel="1"/>
-    <col min="8" max="8" width="9" outlineLevel="1"/>
+    <col min="4" max="5" width="9" outlineLevel="1"/>
+    <col min="7" max="7" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D3" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
+        <v>"1":10000</v>
+      </c>
+      <c r="E2" t="str">
+        <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
+        <v>"1":10000</v>
+      </c>
+      <c r="G2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
+&amp;"}"</f>
+        <v>{"1":10000,"10":90000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E4" ca="1" si="0">IF(ROW()=2,F2,OFFSET(E2,-1,0)&amp;IF(LEN(F2)=0,"",","&amp;F2))</f>
-        <v>"1":10000</v>
-      </c>
-      <c r="F2" t="str">
-        <f>""""&amp;$C2&amp;""""&amp;""&amp;":"&amp;D2</f>
-        <v>"1":10000</v>
-      </c>
-      <c r="H2" t="str">
-        <f ca="1">"{"&amp;
-IF(LEFT(OFFSET(E1,COUNTA(E:E)-1,0),1)=",",SUBSTITUTE(OFFSET(E1,COUNTA(E:E)-1,0),",","",1),OFFSET(E1,COUNTA(E:E)-1,0))
-&amp;"}"</f>
-        <v>{"1":10000,"10":90000,"50":400000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="B3">
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
         <v>90000</v>
       </c>
-      <c r="E3" t="str">
+      <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>"1":10000,"10":90000</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F4" si="1">""""&amp;$C3&amp;""""&amp;""&amp;":"&amp;D3</f>
+      <c r="E3" t="str">
+        <f>""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
         <v>"10":90000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>400000</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>"1":10000,"10":90000,"50":400000</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>"50":400000</v>
       </c>
     </row>
   </sheetData>
@@ -1324,24 +1269,24 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1352,10 +1297,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1366,24 +1311,24 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F93AC-FB9A-4BB2-BFF4-92A5AFBA3F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D36F0C-5313-4073-BA17-14BA36B5E7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -570,20 +570,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA5B2EA-6544-40D3-B1ED-0FD4B8BAA222}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="6" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" collapsed="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,16 +597,49 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>20</v>
+      </c>
+      <c r="H1">
+        <v>40</v>
+      </c>
+      <c r="I1">
+        <v>70</v>
+      </c>
+      <c r="J1">
+        <v>110</v>
+      </c>
+      <c r="K1">
+        <v>160</v>
+      </c>
+      <c r="L1">
+        <v>210</v>
+      </c>
+      <c r="M1">
+        <v>270</v>
+      </c>
+      <c r="N1">
+        <v>340</v>
+      </c>
+      <c r="O1">
+        <v>420</v>
+      </c>
+      <c r="P1">
+        <v>510</v>
+      </c>
+      <c r="Q1">
+        <v>600</v>
+      </c>
+      <c r="S1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -615,9 +648,10 @@
       </c>
       <c r="C2" t="str">
         <f>D2
-&amp;", "&amp;E2
-&amp;", "&amp;F2</f>
-        <v>0, 0, 0.01</v>
+&amp;", "&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;I2
+&amp;", "&amp;J2&amp;", "&amp;K2&amp;", "&amp;L2&amp;", "&amp;M2&amp;", "&amp;N2
+&amp;", "&amp;O2&amp;", "&amp;P2&amp;", "&amp;Q2</f>
+        <v>0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0.003, 0.007, 0.012</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -626,13 +660,46 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -641,9 +708,10 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C8" si="0">D3
-&amp;", "&amp;E3
-&amp;", "&amp;F3</f>
-        <v>0, 0, 0.02</v>
+&amp;", "&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3
+&amp;", "&amp;J3&amp;", "&amp;K3&amp;", "&amp;L3&amp;", "&amp;M3&amp;", "&amp;N3
+&amp;", "&amp;O3&amp;", "&amp;P3&amp;", "&amp;Q3</f>
+        <v>0, 0, 0, 0, 0, 0, 0, 0, 0.005, 0.015, 0.03, 0.04, 0.05, 0.06</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -652,16 +720,50 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.02</v>
-      </c>
-      <c r="H3" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.03</v>
+      </c>
+      <c r="O3">
+        <v>0.04</v>
+      </c>
+      <c r="P3">
+        <v>0.05</v>
+      </c>
+      <c r="Q3">
+        <v>0.06</v>
+      </c>
+      <c r="S3" t="str">
         <f>D1
-&amp;", "&amp;E1
-&amp;", "&amp;F1</f>
-        <v>1, 3, 5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+&amp;", "&amp;E1&amp;", "&amp;F1&amp;", "&amp;G1&amp;", "&amp;H1&amp;", "&amp;I1
+&amp;", "&amp;J1&amp;", "&amp;K1&amp;", "&amp;L1&amp;", "&amp;M1&amp;", "&amp;N1
+&amp;", "&amp;O1&amp;", "&amp;P1&amp;", "&amp;Q1</f>
+        <v>1, 5, 10, 20, 40, 70, 110, 160, 210, 270, 340, 420, 510, 600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -670,19 +772,52 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0, 0.025, 0.07</v>
+        <v>0, 0, 0, 0, 0, 0.01, 0.025, 0.05, 0.07, 0.08, 0.1, 0.11, 0.12, 0.13</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.01</v>
+      </c>
+      <c r="J4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F4">
+      <c r="K4">
+        <v>0.05</v>
+      </c>
+      <c r="L4">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0.08</v>
+      </c>
+      <c r="N4">
+        <v>0.1</v>
+      </c>
+      <c r="O4">
+        <v>0.11</v>
+      </c>
+      <c r="P4">
+        <v>0.12</v>
+      </c>
+      <c r="Q4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -691,19 +826,52 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>0.075, 0.1, 0.15</v>
+        <v>0, 0, 0, 0.025, 0.05, 0.08, 0.1, 0.12, 0.13, 0.14, 0.145, 0.148, 0.15, 0.16</v>
       </c>
       <c r="D5">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <v>0.08</v>
+      </c>
+      <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="F5">
+      <c r="K5">
+        <v>0.12</v>
+      </c>
+      <c r="L5">
+        <v>0.13</v>
+      </c>
+      <c r="M5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -712,19 +880,52 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>0.125, 0.175, 0.2</v>
+        <v>0, 0.05, 0.1, 0.125, 0.135, 0.145, 0.155, 0.16, 0.165, 0.17, 0.18, 0.19, 0.195, 0.197</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
         <v>0.125</v>
       </c>
-      <c r="E6">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.155</v>
+      </c>
+      <c r="K6">
+        <v>0.16</v>
+      </c>
+      <c r="L6">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.17</v>
+      </c>
+      <c r="N6">
+        <v>0.18</v>
+      </c>
+      <c r="O6">
+        <v>0.19</v>
+      </c>
+      <c r="P6">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -733,19 +934,52 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>0.3, 0.25, 0.2</v>
+        <v>0.35, 0.32, 0.31, 0.3, 0.28, 0.275, 0.26, 0.24, 0.23, 0.22, 0.21, 0.205, 0.202, 0.2</v>
       </c>
       <c r="D7">
+        <v>0.35</v>
+      </c>
+      <c r="E7">
+        <v>0.32</v>
+      </c>
+      <c r="F7">
+        <v>0.31</v>
+      </c>
+      <c r="G7">
         <v>0.3</v>
       </c>
-      <c r="E7">
-        <v>0.25</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.26</v>
+      </c>
+      <c r="K7">
+        <v>0.24</v>
+      </c>
+      <c r="L7">
+        <v>0.23</v>
+      </c>
+      <c r="M7">
+        <v>0.22</v>
+      </c>
+      <c r="N7">
+        <v>0.21</v>
+      </c>
+      <c r="O7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="Q7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -754,19 +988,52 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>0.5, 0.45, 0.35</v>
+        <v>0.65, 0.63, 0.59, 0.55, 0.535, 0.49, 0.46, 0.43, 0.4, 0.375, 0.335, 0.304, 0.276, 0.241</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="E8">
-        <v>0.45</v>
+        <v>0.63</v>
       </c>
       <c r="F8">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>0.59</v>
+      </c>
+      <c r="G8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.49</v>
+      </c>
+      <c r="J8">
+        <v>0.46</v>
+      </c>
+      <c r="K8">
+        <v>0.43</v>
+      </c>
+      <c r="L8">
+        <v>0.4</v>
+      </c>
+      <c r="M8">
+        <v>0.375</v>
+      </c>
+      <c r="N8">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="O8">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -782,7 +1049,52 @@
         <f>IF(SUM(F2:F8)=1,"",SUM(F2:F8)&amp;": 합이상")</f>
         <v/>
       </c>
-    </row>
+      <c r="G9" s="1" t="str">
+        <f>IF(SUM(G2:G8)=1,"",SUM(G2:G8)&amp;": 합이상")</f>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" ref="H9:I9" si="1">IF(SUM(H2:H8)=1,"",SUM(H2:H8)&amp;": 합이상")</f>
+        <v/>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" ref="J9" si="2">IF(SUM(J2:J8)=1,"",SUM(J2:J8)&amp;": 합이상")</f>
+        <v/>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" ref="K9" si="3">IF(SUM(K2:K8)=1,"",SUM(K2:K8)&amp;": 합이상")</f>
+        <v/>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" ref="L9" si="4">IF(SUM(L2:L8)=1,"",SUM(L2:L8)&amp;": 합이상")</f>
+        <v/>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" ref="M9" si="5">IF(SUM(M2:M8)=1,"",SUM(M2:M8)&amp;": 합이상")</f>
+        <v/>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" ref="N9" si="6">IF(SUM(N2:N8)=1,"",SUM(N2:N8)&amp;": 합이상")</f>
+        <v/>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" ref="O9" si="7">IF(SUM(O2:O8)=1,"",SUM(O2:O8)&amp;": 합이상")</f>
+        <v/>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" ref="P9" si="8">IF(SUM(P2:P8)=1,"",SUM(P2:P8)&amp;": 합이상")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" ref="Q9" si="9">IF(SUM(Q2:Q8)=1,"",SUM(Q2:Q8)&amp;": 합이상")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:19" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1116,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CABF405-75D3-4FD5-A068-903C749D568E}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D36F0C-5313-4073-BA17-14BA36B5E7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15633633-AE71-477D-B2FD-8D0602F17163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA5B2EA-6544-40D3-B1ED-0FD4B8BAA222}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1208,14 +1208,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="46.375" customWidth="1"/>
-    <col min="4" max="14" width="9" outlineLevel="1"/>
+    <col min="4" max="14" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1281,7 +1281,7 @@
 &amp;", "&amp;L2
 &amp;", "&amp;M2
 &amp;", "&amp;N2</f>
-        <v>0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005</v>
+        <v>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>5.0000000000000001E-3</v>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" si="0">D3
@@ -1336,7 +1336,7 @@
 &amp;", "&amp;L3
 &amp;", "&amp;M3
 &amp;", "&amp;N3</f>
-        <v>0, 0, 0, 0, 0, 0.04, 0.04, 0.04, 0.04, 0.04, 0.04</v>
+        <v>0, 0, 0, 0, 0, 0, 0.016, 0.016, 0.016, 0.016, 0.016</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1354,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K3">
-        <v>0.04</v>
+        <v>1.6E-2</v>
       </c>
       <c r="L3">
-        <v>0.04</v>
+        <v>1.6E-2</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>1.6E-2</v>
       </c>
       <c r="N3">
-        <v>0.04</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1377,44 +1377,44 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.16</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>1, 0.9, 0.8, 0.7, 0.6, 0.5, 0.4, 0.3, 0.2, 0.16, 0.16</v>
+        <v>1, 0.45, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>0.22</v>
       </c>
       <c r="G4">
-        <v>0.7</v>
+        <v>0.16</v>
       </c>
       <c r="H4">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="L4">
-        <v>0.2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="M4">
-        <v>0.16</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="N4">
-        <v>0.16</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15633633-AE71-477D-B2FD-8D0602F17163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C17FBEB-6773-476B-83E4-FC77A5E7A837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -1208,9 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1428,15 +1426,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CABF405-75D3-4FD5-A068-903C749D568E}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" outlineLevel="1"/>
-    <col min="7" max="7" width="9" outlineLevel="1"/>
+    <col min="4" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1467,21 +1465,21 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
-        <v>"1":10000</v>
+        <v>"1":50000</v>
       </c>
       <c r="E2" t="str">
         <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
-        <v>"1":10000</v>
+        <v>"1":50000</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"1":10000,"10":90000}</v>
+        <v>{"1":50000,"10":450000}</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1492,15 +1490,15 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>90000</v>
+        <v>450000</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"1":10000,"10":90000</v>
+        <v>"1":50000,"10":450000</v>
       </c>
       <c r="E3" t="str">
         <f>""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
-        <v>"10":90000</v>
+        <v>"10":450000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C17FBEB-6773-476B-83E4-FC77A5E7A837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8888908B-C77C-48D3-B60D-436C7B8712D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>grade|Int</t>
   </si>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>finalProb|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TotalSpellGachaStep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>count|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,38 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장비1회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비10회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수장비1회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수장비10회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50회연속특수기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S급 에픽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200회연속특수기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +155,18 @@
   </si>
   <si>
     <t>adjustProbs|Float!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shpEquip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -636,7 +608,7 @@
         <v>600</v>
       </c>
       <c r="S1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -696,7 +668,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1035,7 +1007,7 @@
     </row>
     <row r="9" spans="1:19" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>IF(SUM(D2:D8)=1,"",SUM(D2:D8)&amp;": 합 이상")</f>
@@ -1117,27 +1089,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1162,7 +1134,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1181,7 +1153,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -1221,43 +1193,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1426,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CABF405-75D3-4FD5-A068-903C749D568E}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1439,27 +1411,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1484,7 +1456,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1510,46 +1482,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AFCA06-935E-4F88-BB53-C1852D3947A3}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1560,85 +1546,81 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD48CC8-8B1A-494D-9B5E-6343713E47F3}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80000</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D3" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
+        <v>"1":80000</v>
+      </c>
+      <c r="E2" t="str">
+        <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
+        <v>"1":80000</v>
+      </c>
+      <c r="G2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
+&amp;"}"</f>
+        <v>{"1":80000,"10":750000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
+        <v>750000</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"1":80000,"10":750000</v>
+      </c>
+      <c r="E3" t="str">
+        <f>""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
+        <v>"10":750000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8888908B-C77C-48D3-B60D-436C7B8712D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84169AB5-61F0-414B-ACD2-BECC4C52827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>grade|Int</t>
   </si>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>shpEquip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1546,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD48CC8-8B1A-494D-9B5E-6343713E47F3}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1601,7 +1605,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"1":80000,"10":750000}</v>
+        <v>{"1":80000,"10":750000,"50":3500000}</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1621,6 +1625,25 @@
       <c r="E3" t="str">
         <f>""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
         <v>"10":750000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>3500000</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4" ca="1" si="1">IF(ROW()=2,E4,OFFSET(D4,-1,0)&amp;IF(LEN(E4)=0,"",","&amp;E4))</f>
+        <v>"1":80000,"10":750000,"50":3500000</v>
+      </c>
+      <c r="E4" t="str">
+        <f>""""&amp;$B4&amp;""""&amp;""&amp;":"&amp;C4</f>
+        <v>"50":3500000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84169AB5-61F0-414B-ACD2-BECC4C52827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D7F9F8-3E19-4978-9B33-375C5C31E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -1082,7 +1082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D409E20-4BA2-4A44-9152-3AB980159ACB}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1119,21 +1121,21 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D4" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
-        <v>"2":20000</v>
+        <v>"2":20</v>
       </c>
       <c r="E2" t="str">
         <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
-        <v>"2":20000</v>
+        <v>"2":20</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"2":20000,"10":90000,"50":400000}</v>
+        <v>{"2":20,"10":90,"50":400}</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1144,15 +1146,15 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>90000</v>
+        <v>90</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"2":20000,"10":90000</v>
+        <v>"2":20,"10":90</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E4" si="1">""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
-        <v>"10":90000</v>
+        <v>"10":90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1163,15 +1165,15 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>400000</v>
+        <v>400</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"2":20000,"10":90000,"50":400000</v>
+        <v>"2":20,"10":90,"50":400</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
-        <v>"50":400000</v>
+        <v>"50":400</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1405,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1441,21 +1443,21 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
-        <v>"1":50000</v>
+        <v>"1":50</v>
       </c>
       <c r="E2" t="str">
         <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
-        <v>"1":50000</v>
+        <v>"1":50</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"1":50000,"10":450000}</v>
+        <v>{"1":50,"10":450}</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1466,15 +1468,15 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>450000</v>
+        <v>450</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"1":50000,"10":450000</v>
+        <v>"1":50,"10":450</v>
       </c>
       <c r="E3" t="str">
         <f>""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
-        <v>"10":450000</v>
+        <v>"10":450</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1555,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1591,21 +1593,21 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>80000</v>
+        <v>80</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
-        <v>"1":80000</v>
+        <v>"1":80</v>
       </c>
       <c r="E2" t="str">
         <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
-        <v>"1":80000</v>
+        <v>"1":80</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"1":80000,"10":750000,"50":3500000}</v>
+        <v>{"1":80,"10":750,"50":3500}</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1616,15 +1618,15 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>750000</v>
+        <v>750</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"1":80000,"10":750000</v>
+        <v>"1":80,"10":750</v>
       </c>
       <c r="E3" t="str">
         <f>""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
-        <v>"10":750000</v>
+        <v>"10":750</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1635,15 +1637,15 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>3500000</v>
+        <v>3500</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4" ca="1" si="1">IF(ROW()=2,E4,OFFSET(D4,-1,0)&amp;IF(LEN(E4)=0,"",","&amp;E4))</f>
-        <v>"1":80000,"10":750000,"50":3500000</v>
+        <v>"1":80,"10":750,"50":3500</v>
       </c>
       <c r="E4" t="str">
         <f>""""&amp;$B4&amp;""""&amp;""&amp;":"&amp;C4</f>
-        <v>"50":3500000</v>
+        <v>"50":3500</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D7F9F8-3E19-4978-9B33-375C5C31E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B66BD-6CB6-41BA-9BD8-3C0B46815E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>grade|Int</t>
   </si>
@@ -172,6 +172,36 @@
   <si>
     <t>Equip50</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probCount11|Float</t>
+  </si>
+  <si>
+    <t>probCount12|Float</t>
+  </si>
+  <si>
+    <t>probCount13|Float</t>
+  </si>
+  <si>
+    <t>probCount14|Float</t>
+  </si>
+  <si>
+    <t>probCount15|Float</t>
+  </si>
+  <si>
+    <t>probCount16|Float</t>
+  </si>
+  <si>
+    <t>probCount17|Float</t>
+  </si>
+  <si>
+    <t>probCount18|Float</t>
+  </si>
+  <si>
+    <t>probCount19|Float</t>
+  </si>
+  <si>
+    <t>probCount20|Float</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1113,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1121,21 +1151,21 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D4" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
-        <v>"2":20</v>
+        <v>"2":5</v>
       </c>
       <c r="E2" t="str">
         <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
-        <v>"2":20</v>
+        <v>"2":5</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"2":20,"10":90,"50":400}</v>
+        <v>{"2":5,"10":22,"50":100}</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1146,15 +1176,15 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"2":20,"10":90</v>
+        <v>"2":5,"10":22</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E4" si="1">""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
-        <v>"10":90</v>
+        <v>"10":22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1165,15 +1195,15 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"2":20,"10":90,"50":400</v>
+        <v>"2":5,"10":22,"50":100</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
-        <v>"50":400</v>
+        <v>"50":100</v>
       </c>
     </row>
   </sheetData>
@@ -1184,17 +1214,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="46.375" customWidth="1"/>
-    <col min="4" max="14" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="24" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1237,8 +1269,38 @@
       <c r="N1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1247,17 +1309,11 @@
       </c>
       <c r="C2" t="str">
         <f>D2
-&amp;", "&amp;E2
-&amp;", "&amp;F2
-&amp;", "&amp;G2
-&amp;", "&amp;H2
-&amp;", "&amp;I2
-&amp;", "&amp;J2
-&amp;", "&amp;K2
-&amp;", "&amp;L2
-&amp;", "&amp;M2
-&amp;", "&amp;N2</f>
-        <v>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005</v>
+&amp;", "&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;I2
+&amp;", "&amp;J2&amp;", "&amp;K2&amp;", "&amp;L2&amp;", "&amp;M2&amp;", "&amp;N2
+&amp;", "&amp;O2&amp;", "&amp;P2&amp;", "&amp;Q2&amp;", "&amp;R2&amp;", "&amp;S2
+&amp;", "&amp;T2&amp;", "&amp;U2&amp;", "&amp;V2&amp;", "&amp;W2&amp;", "&amp;X2</f>
+        <v>0, 0, 0, 0, 0, 0, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005, 0.005</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1292,8 +1348,38 @@
       <c r="N2">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1301,18 +1387,12 @@
         <v>1.6E-2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">D3
-&amp;", "&amp;E3
-&amp;", "&amp;F3
-&amp;", "&amp;G3
-&amp;", "&amp;H3
-&amp;", "&amp;I3
-&amp;", "&amp;J3
-&amp;", "&amp;K3
-&amp;", "&amp;L3
-&amp;", "&amp;M3
-&amp;", "&amp;N3</f>
-        <v>0, 0, 0, 0, 0, 0, 0.016, 0.016, 0.016, 0.016, 0.016</v>
+        <f>D3
+&amp;", "&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3
+&amp;", "&amp;J3&amp;", "&amp;K3&amp;", "&amp;L3&amp;", "&amp;M3&amp;", "&amp;N3
+&amp;", "&amp;O3&amp;", "&amp;P3&amp;", "&amp;Q3&amp;", "&amp;R3&amp;", "&amp;S3
+&amp;", "&amp;T3&amp;", "&amp;U3&amp;", "&amp;V3&amp;", "&amp;W3&amp;", "&amp;X3</f>
+        <v>0, 0, 0, 0, 0.08, 0.06, 0.04, 0.02, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1327,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J3">
-        <v>1.6E-2</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
-        <v>1.6E-2</v>
+        <v>0.02</v>
       </c>
       <c r="L3">
         <v>1.6E-2</v>
@@ -1347,8 +1427,38 @@
       <c r="N3">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="R3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="S3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="U3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="V3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="X3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1356,40 +1466,74 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>1, 0.45, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042</v>
+        <f>D4
+&amp;", "&amp;E4&amp;", "&amp;F4&amp;", "&amp;G4&amp;", "&amp;H4&amp;", "&amp;I4
+&amp;", "&amp;J4&amp;", "&amp;K4&amp;", "&amp;L4&amp;", "&amp;M4&amp;", "&amp;N4
+&amp;", "&amp;O4&amp;", "&amp;P4&amp;", "&amp;Q4&amp;", "&amp;R4&amp;", "&amp;S4
+&amp;", "&amp;T4&amp;", "&amp;U4&amp;", "&amp;V4&amp;", "&amp;W4&amp;", "&amp;X4</f>
+        <v>1, 0.75, 0.67, 0.45, 0.33, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <v>0.67</v>
+      </c>
+      <c r="G4">
         <v>0.45</v>
       </c>
-      <c r="F4">
+      <c r="H4">
+        <v>0.33</v>
+      </c>
+      <c r="I4">
         <v>0.22</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>0.16</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>0.12</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>0.1</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>0.08</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0.06</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="R4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="T4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="U4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="V4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="W4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="X4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
@@ -1405,7 +1549,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1443,21 +1587,21 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
-        <v>"1":50</v>
+        <v>"1":15</v>
       </c>
       <c r="E2" t="str">
         <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
-        <v>"1":50</v>
+        <v>"1":15</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"1":50,"10":450}</v>
+        <v>{"1":15,"10":120}</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1468,15 +1612,15 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"1":50,"10":450</v>
+        <v>"1":15,"10":120</v>
       </c>
       <c r="E3" t="str">
         <f>""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
-        <v>"10":450</v>
+        <v>"10":120</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1699,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1593,21 +1737,21 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
-        <v>"1":80</v>
+        <v>"1":20</v>
       </c>
       <c r="E2" t="str">
         <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
-        <v>"1":80</v>
+        <v>"1":20</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"1":80,"10":750,"50":3500}</v>
+        <v>{"1":20,"10":175,"50":800}</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1618,15 +1762,15 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>750</v>
+        <v>175</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"1":80,"10":750</v>
+        <v>"1":20,"10":175</v>
       </c>
       <c r="E3" t="str">
         <f>""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
-        <v>"10":750</v>
+        <v>"10":175</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1637,15 +1781,15 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4" ca="1" si="1">IF(ROW()=2,E4,OFFSET(D4,-1,0)&amp;IF(LEN(E4)=0,"",","&amp;E4))</f>
-        <v>"1":80,"10":750,"50":3500</v>
+        <v>"1":20,"10":175,"50":800</v>
       </c>
       <c r="E4" t="str">
         <f>""""&amp;$B4&amp;""""&amp;""&amp;":"&amp;C4</f>
-        <v>"50":3500</v>
+        <v>"50":800</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B66BD-6CB6-41BA-9BD8-3C0B46815E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18D714E-CAE7-481A-B3B7-8E1ED7F768F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
     <sheet name="ShopSpellTable" sheetId="4" r:id="rId2"/>
     <sheet name="GachaActorTable" sheetId="2" r:id="rId3"/>
     <sheet name="ShopActorTable" sheetId="6" r:id="rId4"/>
-    <sheet name="GachaEquipTable" sheetId="3" r:id="rId5"/>
-    <sheet name="ShopEquipTable" sheetId="5" r:id="rId6"/>
+    <sheet name="ShopEquipTable" sheetId="5" r:id="rId5"/>
+    <sheet name="GachaEquipTable" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>grade|Int</t>
   </si>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Equip50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>probCount11|Float</t>
   </si>
   <si>
@@ -202,6 +198,14 @@
   </si>
   <si>
     <t>probCount20|Float</t>
+  </si>
+  <si>
+    <t>rarity|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1270,34 +1274,34 @@
         <v>30</v>
       </c>
       <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>40</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>41</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>43</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -1631,75 +1635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AFCA06-935E-4F88-BB53-C1852D3947A3}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD48CC8-8B1A-494D-9B5E-6343713E47F3}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1751,7 +1691,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"1":20,"10":175,"50":800}</v>
+        <v>{"1":20,"10":175,"20":300}</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1775,21 +1715,114 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4" ca="1" si="1">IF(ROW()=2,E4,OFFSET(D4,-1,0)&amp;IF(LEN(E4)=0,"",","&amp;E4))</f>
-        <v>"1":20,"10":175,"50":800</v>
+        <v>"1":20,"10":175,"20":300</v>
       </c>
       <c r="E4" t="str">
         <f>""""&amp;$B4&amp;""""&amp;""&amp;":"&amp;C4</f>
-        <v>"50":800</v>
+        <v>"20":300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AFCA06-935E-4F88-BB53-C1852D3947A3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18D714E-CAE7-481A-B3B7-8E1ED7F768F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4313D81-6F55-4BBD-A6F1-C62DD972F939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="7" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="ShopActorTable" sheetId="6" r:id="rId4"/>
     <sheet name="ShopEquipTable" sheetId="5" r:id="rId5"/>
     <sheet name="GachaEquipTable" sheetId="3" r:id="rId6"/>
+    <sheet name="픽업캐릭" sheetId="7" r:id="rId7"/>
+    <sheet name="픽업이큅" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>grade|Int</t>
   </si>
@@ -205,6 +207,108 @@
   </si>
   <si>
     <t>Equip20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor0201</t>
+  </si>
+  <si>
+    <t>Actor2238</t>
+  </si>
+  <si>
+    <t>참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickUpChar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간파울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickUpEquip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip031201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip034201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip033001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +337,28 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -259,18 +385,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -584,7 +733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="3" max="3" width="28.75" customWidth="1"/>
     <col min="4" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -593,7 +742,7 @@
     <col min="20" max="20" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -709,7 +858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -773,7 +922,7 @@
         <v>1, 5, 10, 20, 40, 70, 110, 160, 210, 270, 340, 420, 510, 600</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1</v>
       </c>
@@ -827,7 +976,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>0</v>
       </c>
@@ -881,7 +1030,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>0</v>
       </c>
@@ -935,7 +1084,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>0</v>
       </c>
@@ -989,7 +1138,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1043,7 +1192,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" hidden="1" outlineLevel="1">
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1253,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:19" collapsed="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1120,14 +1269,14 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1321,7 @@
         <v>{"2":5,"10":22,"50":100}</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1340,7 @@
         <v>"10":22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1224,13 +1373,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="3" max="3" width="46.375" customWidth="1"/>
     <col min="4" max="24" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1383,7 +1532,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1462,7 +1611,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1556,14 +1705,14 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1583,7 +1732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1757,7 @@
         <v>{"1":15,"10":120}</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1638,18 +1787,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD48CC8-8B1A-494D-9B5E-6343713E47F3}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1843,7 @@
         <v>{"1":20,"10":175,"20":300}</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1713,7 +1862,7 @@
         <v>"10":175</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1746,9 +1895,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1770,7 +1919,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1781,7 +1930,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1792,7 +1941,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1803,7 +1952,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1814,7 +1963,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1829,4 +1978,609 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2E4E2B-4701-4F06-BDB0-D365FEE0C64E}">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.875" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="16" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <f>YEAR(H2)</f>
+        <v>2023</v>
+      </c>
+      <c r="C2">
+        <f>MONTH(H2)</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>DAY(H2)</f>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>YEAR(I2+1)</f>
+        <v>2023</v>
+      </c>
+      <c r="F2">
+        <f>MONTH(I2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>DAY(I2+1)</f>
+        <v>20</v>
+      </c>
+      <c r="H2" s="5">
+        <v>44967</v>
+      </c>
+      <c r="I2" s="5">
+        <v>44976</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>120</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2" ca="1" si="0">IF(ROW()=2,P2,OFFSET(O2,-1,0)&amp;IF(LEN(P2)=0,"",","&amp;P2))</f>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":50,"count":10,"price":120}</v>
+      </c>
+      <c r="P2" t="str">
+        <f>IF(N2&lt;&gt;1,"",
+"{"""&amp;B$1&amp;""":"""&amp;B2&amp;""""
+&amp;","""&amp;C$1&amp;""":"""&amp;C2&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E2&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F2&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G2&amp;""""
+&amp;IF(LEN(J2)=0,"",","""&amp;J$1&amp;""":"""&amp;J2&amp;"""")
+&amp;IF(LEN(K2)=0,"",","""&amp;K$1&amp;""":"&amp;K2)
+&amp;IF(LEN(L2)=0,"",","""&amp;L$1&amp;""":"&amp;L2)
+&amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"&amp;M2)&amp;"}")</f>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":50,"count":10,"price":120}</v>
+      </c>
+      <c r="R2" t="str">
+        <f ca="1">"["&amp;
+IF(LEFT(OFFSET(O1,COUNTA(O:O)-1,0),1)=",",SUBSTITUTE(OFFSET(O1,COUNTA(O:O)-1,0),",","",1),OFFSET(O1,COUNTA(O:O)-1,0))
+&amp;"]"</f>
+        <v>[{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":50,"count":10,"price":120},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":50,"count":10,"price":120},{"sy":"2023","sm":"3","sd":"5","ey":"2023","em":"3","ed":"12","id":"Actor2238","bc":50,"count":10,"price":120}]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B4" si="1">YEAR(H3)</f>
+        <v>2023</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C4" si="2">MONTH(H3)</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="3">DAY(H3)</f>
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="4">YEAR(I3+1)</f>
+        <v>2023</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="5">MONTH(I3+1)</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="6">DAY(I3+1)</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>44982</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44989</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>120</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O4" ca="1" si="7">IF(ROW()=2,P3,OFFSET(O3,-1,0)&amp;IF(LEN(P3)=0,"",","&amp;P3))</f>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":50,"count":10,"price":120},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":50,"count":10,"price":120}</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P4" si="8">IF(N3&lt;&gt;1,"",
+"{"""&amp;B$1&amp;""":"""&amp;B3&amp;""""
+&amp;","""&amp;C$1&amp;""":"""&amp;C3&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D3&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E3&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F3&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G3&amp;""""
+&amp;IF(LEN(J3)=0,"",","""&amp;J$1&amp;""":"""&amp;J3&amp;"""")
+&amp;IF(LEN(K3)=0,"",","""&amp;K$1&amp;""":"&amp;K3)
+&amp;IF(LEN(L3)=0,"",","""&amp;L$1&amp;""":"&amp;L3)
+&amp;IF(LEN(M3)=0,"",","""&amp;M$1&amp;""":"&amp;M3)&amp;"}")</f>
+        <v>{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":50,"count":10,"price":120}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44990</v>
+      </c>
+      <c r="I4" s="5">
+        <v>44996</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>120</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":50,"count":10,"price":120},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":50,"count":10,"price":120},{"sy":"2023","sm":"3","sd":"5","ey":"2023","em":"3","ed":"12","id":"Actor2238","bc":50,"count":10,"price":120}</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="8"/>
+        <v>{"sy":"2023","sm":"3","sd":"5","ey":"2023","em":"3","ed":"12","id":"Actor2238","bc":50,"count":10,"price":120}</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H1:I1048576">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>OR($N1=0,$I1&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2961BD-E0AE-4D3B-B718-993382D622B5}">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.875" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="12" width="4.625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.625" customWidth="1"/>
+    <col min="16" max="16" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="B2">
+        <f>YEAR(H2)</f>
+        <v>2023</v>
+      </c>
+      <c r="C2">
+        <f>MONTH(H2)</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>DAY(H2)</f>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>YEAR(I2+1)</f>
+        <v>2023</v>
+      </c>
+      <c r="F2">
+        <f>MONTH(I2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>DAY(I2+1)</f>
+        <v>22</v>
+      </c>
+      <c r="H2" s="5">
+        <v>44967</v>
+      </c>
+      <c r="I2" s="5">
+        <v>44978</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>300</v>
+      </c>
+      <c r="O2">
+        <v>0.02</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q4" ca="1" si="0">IF(ROW()=2,R2,OFFSET(Q2,-1,0)&amp;IF(LEN(R2)=0,"",","&amp;R2))</f>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02}</v>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(P2&lt;&gt;1,"",
+"{"""&amp;B$1&amp;""":"""&amp;B2&amp;""""
+&amp;","""&amp;C$1&amp;""":"""&amp;C2&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E2&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F2&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G2&amp;""""
+&amp;IF(LEN(J2)=0,"",","""&amp;J$1&amp;""":"""&amp;J2&amp;"""")
+&amp;IF(LEN(K2)=0,"",","""&amp;K$1&amp;""":"&amp;K2)
+&amp;IF(LEN(L2)=0,"",","""&amp;L$1&amp;""":"&amp;L2)
+&amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"&amp;M2)
+&amp;IF(LEN(N2)=0,"",","""&amp;N$1&amp;""":"&amp;N2)
+&amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"&amp;O2)&amp;"}")</f>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02}</v>
+      </c>
+      <c r="T2" t="str">
+        <f ca="1">"["&amp;
+IF(LEFT(OFFSET(Q1,COUNTA(Q:Q)-1,0),1)=",",SUBSTITUTE(OFFSET(Q1,COUNTA(Q:Q)-1,0),",","",1),OFFSET(Q1,COUNTA(Q:Q)-1,0))
+&amp;"]"</f>
+        <v>[{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip034201","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02},{"sy":"2023","sm":"3","sd":"5","ey":"2023","em":"3","ed":"15","id":"Equip033001","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02}]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="B3">
+        <f t="shared" ref="B3:B4" si="1">YEAR(H3)</f>
+        <v>2023</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C4" si="2">MONTH(H3)</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="3">DAY(H3)</f>
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="4">YEAR(I3+1)</f>
+        <v>2023</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="5">MONTH(I3+1)</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="6">DAY(I3+1)</f>
+        <v>7</v>
+      </c>
+      <c r="H3" s="5">
+        <v>44980</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44991</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>300</v>
+      </c>
+      <c r="O3">
+        <v>0.02</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip034201","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02}</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R4" si="7">IF(P3&lt;&gt;1,"",
+"{"""&amp;B$1&amp;""":"""&amp;B3&amp;""""
+&amp;","""&amp;C$1&amp;""":"""&amp;C3&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D3&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E3&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F3&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G3&amp;""""
+&amp;IF(LEN(J3)=0,"",","""&amp;J$1&amp;""":"""&amp;J3&amp;"""")
+&amp;IF(LEN(K3)=0,"",","""&amp;K$1&amp;""":"&amp;K3)
+&amp;IF(LEN(L3)=0,"",","""&amp;L$1&amp;""":"&amp;L3)
+&amp;IF(LEN(M3)=0,"",","""&amp;M$1&amp;""":"&amp;M3)
+&amp;IF(LEN(N3)=0,"",","""&amp;N$1&amp;""":"&amp;N3)
+&amp;IF(LEN(O3)=0,"",","""&amp;O$1&amp;""":"&amp;O3)&amp;"}")</f>
+        <v>{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip034201","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44990</v>
+      </c>
+      <c r="I4" s="5">
+        <v>44999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>300</v>
+      </c>
+      <c r="O4">
+        <v>0.02</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip034201","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02},{"sy":"2023","sm":"3","sd":"5","ey":"2023","em":"3","ed":"15","id":"Equip033001","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02}</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="7"/>
+        <v>{"sy":"2023","sm":"3","sd":"5","ey":"2023","em":"3","ed":"15","id":"Equip033001","sc":50,"ssc":100,"count":20,"price":300,"ov":0.02}</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H1:I1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR($P1=0,$I1&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4313D81-6F55-4BBD-A6F1-C62DD972F939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD75F5F-3E73-43C9-ADCA-291300F7CEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="7" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1624,37 +1624,37 @@
 &amp;", "&amp;J4&amp;", "&amp;K4&amp;", "&amp;L4&amp;", "&amp;M4&amp;", "&amp;N4
 &amp;", "&amp;O4&amp;", "&amp;P4&amp;", "&amp;Q4&amp;", "&amp;R4&amp;", "&amp;S4
 &amp;", "&amp;T4&amp;", "&amp;U4&amp;", "&amp;V4&amp;", "&amp;W4&amp;", "&amp;X4</f>
-        <v>1, 0.75, 0.67, 0.45, 0.33, 0.22, 0.16, 0.12, 0.1, 0.08, 0.06, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042</v>
+        <v>1, 0.5, 0.25, 0.175, 0.3, 0.25, 0.15, 0.15, 0.15, 0.1, 0.06, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042, 0.042</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="G4">
-        <v>0.45</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="H4">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I4">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="J4">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K4">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="L4">
+        <v>0.15</v>
+      </c>
+      <c r="M4">
         <v>0.1</v>
-      </c>
-      <c r="M4">
-        <v>0.08</v>
       </c>
       <c r="N4">
         <v>0.06</v>
@@ -1986,23 +1986,23 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="4.125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="3.625" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="9" width="10.875" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.875" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="12" max="12" width="6.375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="5.5" customWidth="1" outlineLevel="1"/>
     <col min="15" max="16" width="9" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="9" customWidth="1" outlineLevel="1"/>
@@ -2277,25 +2277,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2961BD-E0AE-4D3B-B718-993382D622B5}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="3.875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="4.125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="3.625" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="9" width="10.875" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1" outlineLevel="1"/>
     <col min="11" max="12" width="4.625" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.625" customWidth="1"/>
+    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="15" width="6.625" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="5.5" customWidth="1" outlineLevel="1"/>
     <col min="17" max="18" width="9" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD75F5F-3E73-43C9-ADCA-291300F7CEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A0CCC-FBE8-40B3-9CA3-41FABBAA5475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
@@ -40,6 +40,182 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ju &amp; Hoo</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7EEE8E09-05F8-4997-A51B-B0F3A70EF1C5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참고로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가챠는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 11</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>명</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미만까지는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중복되면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>굴린다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코딩</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
@@ -316,7 +492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +537,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1366,12 +1555,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
@@ -1694,6 +1881,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A0CCC-FBE8-40B3-9CA3-41FABBAA5475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688E4E8C-0472-4C42-8C46-187BC1AF7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="30345" yWindow="3855" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
@@ -2079,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AFCA06-935E-4F88-BB53-C1852D3947A3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2159,12 +2159,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688E4E8C-0472-4C42-8C46-187BC1AF7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1ACDE3-2902-40FA-A7D5-C9B7C46132DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="3855" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="3" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -1558,7 +1558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62031F-935E-4BEE-BE91-1E3BF349C9A0}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
@@ -1889,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CABF405-75D3-4FD5-A068-903C749D568E}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1925,24 +1927,24 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
-        <v>"1":15</v>
+        <v>"4":100</v>
       </c>
       <c r="E2" t="str">
         <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
-        <v>"1":15</v>
+        <v>"4":100</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"1":15,"10":120}</v>
+        <v>{"4":100,"10":200}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1953,15 +1955,15 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"1":15,"10":120</v>
+        <v>"4":100,"10":200</v>
       </c>
       <c r="E3" t="str">
         <f>""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
-        <v>"10":120</v>
+        <v>"10":200</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AFCA06-935E-4F88-BB53-C1852D3947A3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990E3BDB-9EFF-445C-824B-053E4D4C84D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC822C44-8DA1-4114-B653-47F701BC315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -21957,7 +21957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA5B2EA-6544-40D3-B1ED-0FD4B8BAA222}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -22948,7 +22948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CABF405-75D3-4FD5-A068-903C749D568E}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -22984,24 +22984,24 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
-        <v>"4":100</v>
+        <v>"3":50</v>
       </c>
       <c r="E2" t="str">
         <f>""""&amp;$B2&amp;""""&amp;""&amp;":"&amp;C2</f>
-        <v>"4":100</v>
+        <v>"3":50</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"}"</f>
-        <v>{"4":100,"10":200}</v>
+        <v>{"3":50,"15":200}</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -23009,18 +23009,18 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"4":100,"10":200</v>
+        <v>"3":50,"15":200</v>
       </c>
       <c r="E3" t="str">
         <f>""""&amp;$B3&amp;""""&amp;""&amp;":"&amp;C3</f>
-        <v>"10":200</v>
+        <v>"15":200</v>
       </c>
     </row>
   </sheetData>
@@ -23139,7 +23139,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A7049-DDE7-454E-BABC-72280F704F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477916EC-9BFB-4FAA-9844-707D6945FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="7" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -23237,7 +23237,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -23530,7 +23530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -23655,7 +23655,7 @@
         <v>20</v>
       </c>
       <c r="N2">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="O2">
         <v>6.0000000000000001E-3</v>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="Q2" t="str">
         <f t="shared" ref="Q2:Q4" ca="1" si="0">IF(ROW()=2,R2,OFFSET(Q2,-1,0)&amp;IF(LEN(R2)=0,"",","&amp;R2))</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
       </c>
       <c r="R2" t="str">
         <f>IF(P2&lt;&gt;1,"",
@@ -23681,13 +23681,13 @@
 &amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"&amp;M2)
 &amp;IF(LEN(N2)=0,"",","""&amp;N$1&amp;""":"&amp;N2)
 &amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"&amp;O2)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
       </c>
       <c r="T2" t="str">
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(Q1,COUNTA(Q:Q)-1,0),1)=",",SUBSTITUTE(OFFSET(Q1,COUNTA(Q:Q)-1,0),",","",1),OFFSET(Q1,COUNTA(Q:Q)-1,0))
 &amp;"]"</f>
-        <v>[{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006}]</v>
+        <v>[{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}]</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -23734,7 +23734,7 @@
         <v>20</v>
       </c>
       <c r="N3">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="O3">
         <v>6.0000000000000001E-3</v>
@@ -23744,7 +23744,7 @@
       </c>
       <c r="Q3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
       </c>
       <c r="R3" t="str">
         <f t="shared" ref="R3:R4" si="7">IF(P3&lt;&gt;1,"",
@@ -23760,7 +23760,7 @@
 &amp;IF(LEN(M3)=0,"",","""&amp;M$1&amp;""":"&amp;M3)
 &amp;IF(LEN(N3)=0,"",","""&amp;N$1&amp;""":"&amp;N3)
 &amp;IF(LEN(O3)=0,"",","""&amp;O$1&amp;""":"&amp;O3)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -23807,7 +23807,7 @@
         <v>20</v>
       </c>
       <c r="N4">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="O4">
         <v>6.0000000000000001E-3</v>
@@ -23817,11 +23817,11 @@
       </c>
       <c r="Q4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="7"/>
-        <v>{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -23868,7 +23868,7 @@
         <v>20</v>
       </c>
       <c r="N5">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="O5">
         <v>6.0000000000000001E-3</v>
@@ -23878,7 +23878,7 @@
       </c>
       <c r="Q5" t="str">
         <f t="shared" ref="Q5" ca="1" si="14">IF(ROW()=2,R5,OFFSET(Q5,-1,0)&amp;IF(LEN(R5)=0,"",","&amp;R5))</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" ref="R5" si="15">IF(P5&lt;&gt;1,"",
@@ -23894,7 +23894,7 @@
 &amp;IF(LEN(M5)=0,"",","""&amp;M$1&amp;""":"&amp;M5)
 &amp;IF(LEN(N5)=0,"",","""&amp;N$1&amp;""":"&amp;N5)
 &amp;IF(LEN(O5)=0,"",","""&amp;O$1&amp;""":"&amp;O5)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":100,"count":20,"price":2000,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477916EC-9BFB-4FAA-9844-707D6945FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F30B30-D2D5-43A5-9F33-A6E5CF1FFD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -23235,9 +23235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2E4E2B-4701-4F06-BDB0-D365FEE0C64E}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M4"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -23350,20 +23350,20 @@
         <v>59</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>10</v>
       </c>
       <c r="M2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2" ca="1" si="0">IF(ROW()=2,P2,OFFSET(O2,-1,0)&amp;IF(LEN(P2)=0,"",","&amp;P2))</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":50,"count":10,"price":120}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":10,"price":200}</v>
       </c>
       <c r="P2" t="str">
         <f>IF(N2&lt;&gt;1,"",
@@ -23377,13 +23377,13 @@
 &amp;IF(LEN(K2)=0,"",","""&amp;K$1&amp;""":"&amp;K2)
 &amp;IF(LEN(L2)=0,"",","""&amp;L$1&amp;""":"&amp;L2)
 &amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"&amp;M2)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":50,"count":10,"price":120}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":10,"price":200}</v>
       </c>
       <c r="R2" t="str">
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(O1,COUNTA(O:O)-1,0),1)=",",SUBSTITUTE(OFFSET(O1,COUNTA(O:O)-1,0),",","",1),OFFSET(O1,COUNTA(O:O)-1,0))
 &amp;"]"</f>
-        <v>[{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":50,"count":10,"price":120},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":50,"count":10,"price":120},{"sy":"2023","sm":"3","sd":"5","ey":"2023","em":"3","ed":"12","id":"Actor2238","bc":50,"count":10,"price":120}]</v>
+        <v>[{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":10,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":10,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":10,"price":200}]</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -23424,20 +23424,20 @@
         <v>59</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>10</v>
       </c>
       <c r="M3">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O4" ca="1" si="7">IF(ROW()=2,P3,OFFSET(O3,-1,0)&amp;IF(LEN(P3)=0,"",","&amp;P3))</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":50,"count":10,"price":120},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":50,"count":10,"price":120}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":10,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":10,"price":200}</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" ref="P3:P4" si="8">IF(N3&lt;&gt;1,"",
@@ -23451,7 +23451,7 @@
 &amp;IF(LEN(K3)=0,"",","""&amp;K$1&amp;""":"&amp;K3)
 &amp;IF(LEN(L3)=0,"",","""&amp;L$1&amp;""":"&amp;L3)
 &amp;IF(LEN(M3)=0,"",","""&amp;M$1&amp;""":"&amp;M3)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":50,"count":10,"price":120}</v>
+        <v>{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":10,"price":200}</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <f t="shared" si="3"/>
@@ -23476,40 +23476,40 @@
       </c>
       <c r="F4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5">
-        <v>44990</v>
+        <v>45082</v>
       </c>
       <c r="I4" s="5">
-        <v>44996</v>
+        <v>45091</v>
       </c>
       <c r="J4" t="s">
         <v>60</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L4">
         <v>10</v>
       </c>
       <c r="M4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":50,"count":10,"price":120},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":50,"count":10,"price":120},{"sy":"2023","sm":"3","sd":"5","ey":"2023","em":"3","ed":"12","id":"Actor2238","bc":50,"count":10,"price":120}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":10,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":10,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":10,"price":200}</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="8"/>
-        <v>{"sy":"2023","sm":"3","sd":"5","ey":"2023","em":"3","ed":"12","id":"Actor2238","bc":50,"count":10,"price":120}</v>
+        <v>{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":10,"price":200}</v>
       </c>
     </row>
   </sheetData>
@@ -23528,9 +23528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2961BD-E0AE-4D3B-B718-993382D622B5}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F30B30-D2D5-43A5-9F33-A6E5CF1FFD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FAD51B-D737-4F8E-847C-9DB481249624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
@@ -23353,7 +23353,7 @@
         <v>100</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M2">
         <v>200</v>
@@ -23363,7 +23363,7 @@
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2" ca="1" si="0">IF(ROW()=2,P2,OFFSET(O2,-1,0)&amp;IF(LEN(P2)=0,"",","&amp;P2))</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":10,"price":200}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":15,"price":200}</v>
       </c>
       <c r="P2" t="str">
         <f>IF(N2&lt;&gt;1,"",
@@ -23377,13 +23377,13 @@
 &amp;IF(LEN(K2)=0,"",","""&amp;K$1&amp;""":"&amp;K2)
 &amp;IF(LEN(L2)=0,"",","""&amp;L$1&amp;""":"&amp;L2)
 &amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"&amp;M2)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":10,"price":200}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":15,"price":200}</v>
       </c>
       <c r="R2" t="str">
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(O1,COUNTA(O:O)-1,0),1)=",",SUBSTITUTE(OFFSET(O1,COUNTA(O:O)-1,0),",","",1),OFFSET(O1,COUNTA(O:O)-1,0))
 &amp;"]"</f>
-        <v>[{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":10,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":10,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":10,"price":200}]</v>
+        <v>[{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":15,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":15,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":15,"price":200}]</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -23427,7 +23427,7 @@
         <v>100</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M3">
         <v>200</v>
@@ -23437,7 +23437,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O4" ca="1" si="7">IF(ROW()=2,P3,OFFSET(O3,-1,0)&amp;IF(LEN(P3)=0,"",","&amp;P3))</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":10,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":10,"price":200}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":15,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":15,"price":200}</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" ref="P3:P4" si="8">IF(N3&lt;&gt;1,"",
@@ -23451,7 +23451,7 @@
 &amp;IF(LEN(K3)=0,"",","""&amp;K$1&amp;""":"&amp;K3)
 &amp;IF(LEN(L3)=0,"",","""&amp;L$1&amp;""":"&amp;L3)
 &amp;IF(LEN(M3)=0,"",","""&amp;M$1&amp;""":"&amp;M3)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":10,"price":200}</v>
+        <v>{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":15,"price":200}</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -23495,7 +23495,7 @@
         <v>100</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M4">
         <v>200</v>
@@ -23505,11 +23505,11 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":10,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":10,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":10,"price":200}</v>
+        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":15,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":15,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":15,"price":200}</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="8"/>
-        <v>{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":10,"price":200}</v>
+        <v>{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":15,"price":200}</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE67239-3D88-4535-830A-67EDD263886C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B46ACA2-ED47-417E-A7B3-D552F154B9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{09274F9C-5D79-4C8F-9B53-4C593F8D4943}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaSpellTable" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>grade|Int</t>
   </si>
@@ -426,104 +426,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Actor0201</t>
+    <t>참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickUpChar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간파울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickUpEquip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip031201</t>
+  </si>
+  <si>
+    <t>Equip032201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip037201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2</t>
+  </si>
+  <si>
+    <t>step3</t>
+  </si>
+  <si>
+    <t>step4</t>
+  </si>
+  <si>
+    <t>step5</t>
+  </si>
+  <si>
+    <t>step6</t>
+  </si>
+  <si>
+    <t>step7</t>
+  </si>
+  <si>
+    <t>step8</t>
+  </si>
+  <si>
+    <t>step9</t>
+  </si>
+  <si>
+    <t>step10</t>
+  </si>
+  <si>
+    <t>step11</t>
+  </si>
+  <si>
+    <t>step12</t>
+  </si>
+  <si>
+    <t>step13</t>
+  </si>
+  <si>
+    <t>step14</t>
+  </si>
+  <si>
+    <t>Actor0037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor0240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통</t>
   </si>
   <si>
     <t>Actor2238</t>
-  </si>
-  <si>
-    <t>참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickUpChar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간파울</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pickUpEquip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ov</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip031201</t>
-  </si>
-  <si>
-    <t>Equip032201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Equip036201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip037201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step2</t>
-  </si>
-  <si>
-    <t>step3</t>
-  </si>
-  <si>
-    <t>step4</t>
-  </si>
-  <si>
-    <t>step5</t>
-  </si>
-  <si>
-    <t>step6</t>
-  </si>
-  <si>
-    <t>step7</t>
-  </si>
-  <si>
-    <t>step8</t>
-  </si>
-  <si>
-    <t>step9</t>
-  </si>
-  <si>
-    <t>step10</t>
-  </si>
-  <si>
-    <t>step11</t>
-  </si>
-  <si>
-    <t>step12</t>
-  </si>
-  <si>
-    <t>step13</t>
-  </si>
-  <si>
-    <t>step14</t>
   </si>
 </sst>
 </file>
@@ -958,7 +970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA5B2EA-6544-40D3-B1ED-0FD4B8BAA222}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
@@ -977,46 +989,46 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>80</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>81</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>82</v>
-      </c>
-      <c r="O1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1581,7 +1593,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1748,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C3" t="str">
         <f>D3
@@ -1756,7 +1768,7 @@
 &amp;", "&amp;J3&amp;", "&amp;K3&amp;", "&amp;L3&amp;", "&amp;M3&amp;", "&amp;N3
 &amp;", "&amp;O3&amp;", "&amp;P3&amp;", "&amp;Q3&amp;", "&amp;R3&amp;", "&amp;S3
 &amp;", "&amp;T3&amp;", "&amp;U3&amp;", "&amp;V3&amp;", "&amp;W3&amp;", "&amp;X3</f>
-        <v>0, 0, 0, 0, 0.08, 0.06, 0.04, 0.02, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016, 0.016</v>
+        <v>0, 0, 0, 0, 0.08, 0.06, 0.04, 0.02, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019, 0.019</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1783,43 +1795,43 @@
         <v>0.02</v>
       </c>
       <c r="L3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="M3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="N3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="P3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Q3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="R3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="S3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="T3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="U3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="V3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="W3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="X3">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -2104,7 +2116,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2150,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.4999999999999998E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2172,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2195,7 +2207,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2E4E2B-4701-4F06-BDB0-D365FEE0C64E}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2223,10 +2235,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>46</v>
@@ -2271,12 +2283,12 @@
         <v>11</v>
       </c>
       <c r="R1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <f>YEAR(H2)</f>
@@ -2284,11 +2296,11 @@
       </c>
       <c r="C2">
         <f>MONTH(H2)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <f>DAY(H2)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <f>YEAR(I2+1)</f>
@@ -2296,20 +2308,20 @@
       </c>
       <c r="F2">
         <f>MONTH(I2+1)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <f>DAY(I2+1)</f>
         <v>20</v>
       </c>
       <c r="H2" s="5">
-        <v>44967</v>
+        <v>45126</v>
       </c>
       <c r="I2" s="5">
-        <v>44976</v>
+        <v>45157</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -2325,7 +2337,7 @@
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2" ca="1" si="0">IF(ROW()=2,P2,OFFSET(O2,-1,0)&amp;IF(LEN(P2)=0,"",","&amp;P2))</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":15,"price":200}</v>
+        <v>{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Actor0037","bc":100,"count":15,"price":200}</v>
       </c>
       <c r="P2" t="str">
         <f>IF(N2&lt;&gt;1,"",
@@ -2339,18 +2351,18 @@
 &amp;IF(LEN(K2)=0,"",","""&amp;K$1&amp;""":"&amp;K2)
 &amp;IF(LEN(L2)=0,"",","""&amp;L$1&amp;""":"&amp;L2)
 &amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"&amp;M2)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":15,"price":200}</v>
+        <v>{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Actor0037","bc":100,"count":15,"price":200}</v>
       </c>
       <c r="R2" t="str">
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(O1,COUNTA(O:O)-1,0),1)=",",SUBSTITUTE(OFFSET(O1,COUNTA(O:O)-1,0),",","",1),OFFSET(O1,COUNTA(O:O)-1,0))
 &amp;"]"</f>
-        <v>[{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":15,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":15,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":15,"price":200}]</v>
+        <v>[{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Actor0037","bc":100,"count":15,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor1002","bc":100,"count":15,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor0240","bc":100,"count":15,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":15,"price":200}]</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B4" si="1">YEAR(H3)</f>
@@ -2383,7 +2395,7 @@
         <v>44989</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -2399,7 +2411,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O4" ca="1" si="7">IF(ROW()=2,P3,OFFSET(O3,-1,0)&amp;IF(LEN(P3)=0,"",","&amp;P3))</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":15,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":15,"price":200}</v>
+        <v>{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Actor0037","bc":100,"count":15,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor1002","bc":100,"count":15,"price":200}</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" ref="P3:P4" si="8">IF(N3&lt;&gt;1,"",
@@ -2413,12 +2425,12 @@
 &amp;IF(LEN(K3)=0,"",","""&amp;K$1&amp;""":"&amp;K3)
 &amp;IF(LEN(L3)=0,"",","""&amp;L$1&amp;""":"&amp;L3)
 &amp;IF(LEN(M3)=0,"",","""&amp;M$1&amp;""":"&amp;M3)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":15,"price":200}</v>
+        <v>{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor1002","bc":100,"count":15,"price":200}</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
@@ -2451,7 +2463,7 @@
         <v>45091</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -2467,10 +2479,78 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"20","id":"Actor0201","bc":100,"count":15,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor0201","bc":100,"count":15,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":15,"price":200}</v>
+        <v>{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Actor0037","bc":100,"count":15,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor1002","bc":100,"count":15,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor0240","bc":100,"count":15,"price":200}</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="8"/>
+        <v>{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor0240","bc":100,"count":15,"price":200}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5" si="9">YEAR(H5)</f>
+        <v>2023</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5" si="10">MONTH(H5)</f>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5" si="11">DAY(H5)</f>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5" si="12">YEAR(I5+1)</f>
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5" si="13">MONTH(I5+1)</f>
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5" si="14">DAY(I5+1)</f>
+        <v>15</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45082</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45091</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>200</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" ref="O5" ca="1" si="15">IF(ROW()=2,P5,OFFSET(O5,-1,0)&amp;IF(LEN(P5)=0,"",","&amp;P5))</f>
+        <v>{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Actor0037","bc":100,"count":15,"price":200},{"sy":"2023","sm":"2","sd":"25","ey":"2023","em":"3","ed":"5","id":"Actor1002","bc":100,"count":15,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor0240","bc":100,"count":15,"price":200},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":15,"price":200}</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5" si="16">IF(N5&lt;&gt;1,"",
+"{"""&amp;B$1&amp;""":"""&amp;B5&amp;""""
+&amp;","""&amp;C$1&amp;""":"""&amp;C5&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D5&amp;""""
+&amp;","""&amp;E$1&amp;""":"""&amp;E5&amp;""""
+&amp;","""&amp;F$1&amp;""":"""&amp;F5&amp;""""
+&amp;","""&amp;G$1&amp;""":"""&amp;G5&amp;""""
+&amp;IF(LEN(J5)=0,"",","""&amp;J$1&amp;""":"""&amp;J5&amp;"""")
+&amp;IF(LEN(K5)=0,"",","""&amp;K$1&amp;""":"&amp;K5)
+&amp;IF(LEN(L5)=0,"",","""&amp;L$1&amp;""":"&amp;L5)
+&amp;IF(LEN(M5)=0,"",","""&amp;M$1&amp;""":"&amp;M5)&amp;"}")</f>
         <v>{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"15","id":"Actor2238","bc":100,"count":15,"price":200}</v>
       </c>
     </row>
@@ -2490,9 +2570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2961BD-E0AE-4D3B-B718-993382D622B5}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2516,10 +2596,10 @@
   <sheetData>
     <row r="1" spans="1:20" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>46</v>
@@ -2546,10 +2626,10 @@
         <v>45</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>55</v>
@@ -2558,7 +2638,7 @@
         <v>56</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>53</v>
@@ -2570,7 +2650,7 @@
         <v>11</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2580,11 +2660,11 @@
       </c>
       <c r="C2">
         <f>MONTH(H2)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <f>DAY(H2)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <f>YEAR(I2+1)</f>
@@ -2592,26 +2672,26 @@
       </c>
       <c r="F2">
         <f>MONTH(I2+1)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <f>DAY(I2+1)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5">
-        <v>44967</v>
+        <v>45126</v>
       </c>
       <c r="I2" s="5">
-        <v>44978</v>
+        <v>45157</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2">
         <v>50</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M2">
         <v>20</v>
@@ -2627,7 +2707,7 @@
       </c>
       <c r="Q2" t="str">
         <f t="shared" ref="Q2:Q4" ca="1" si="0">IF(ROW()=2,R2,OFFSET(Q2,-1,0)&amp;IF(LEN(R2)=0,"",","&amp;R2))</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Equip031201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006}</v>
       </c>
       <c r="R2" t="str">
         <f>IF(P2&lt;&gt;1,"",
@@ -2643,13 +2723,13 @@
 &amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"&amp;M2)
 &amp;IF(LEN(N2)=0,"",","""&amp;N$1&amp;""":"&amp;N2)
 &amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"&amp;O2)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Equip031201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006}</v>
       </c>
       <c r="T2" t="str">
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(Q1,COUNTA(Q:Q)-1,0),1)=",",SUBSTITUTE(OFFSET(Q1,COUNTA(Q:Q)-1,0),",","",1),OFFSET(Q1,COUNTA(Q:Q)-1,0))
 &amp;"]"</f>
-        <v>[{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}]</v>
+        <v>[{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Equip031201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip036201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip032201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006}]</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2684,13 +2764,13 @@
         <v>44991</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="K3">
         <v>50</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M3">
         <v>20</v>
@@ -2706,7 +2786,7 @@
       </c>
       <c r="Q3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Equip031201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip036201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006}</v>
       </c>
       <c r="R3" t="str">
         <f t="shared" ref="R3:R4" si="7">IF(P3&lt;&gt;1,"",
@@ -2722,7 +2802,7 @@
 &amp;IF(LEN(M3)=0,"",","""&amp;M$1&amp;""":"&amp;M3)
 &amp;IF(LEN(N3)=0,"",","""&amp;N$1&amp;""":"&amp;N3)
 &amp;IF(LEN(O3)=0,"",","""&amp;O$1&amp;""":"&amp;O3)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip036201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006}</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2757,13 +2837,13 @@
         <v>45060</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K4">
         <v>50</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M4">
         <v>20</v>
@@ -2779,11 +2859,11 @@
       </c>
       <c r="Q4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Equip031201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip036201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip032201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006}</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="7"/>
-        <v>{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip032201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006}</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2818,13 +2898,13 @@
         <v>45101</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K5">
         <v>50</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M5">
         <v>20</v>
@@ -2840,7 +2920,7 @@
       </c>
       <c r="Q5" t="str">
         <f t="shared" ref="Q5" ca="1" si="14">IF(ROW()=2,R5,OFFSET(Q5,-1,0)&amp;IF(LEN(R5)=0,"",","&amp;R5))</f>
-        <v>{"sy":"2023","sm":"2","sd":"10","ey":"2023","em":"2","ed":"22","id":"Equip031201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip032201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip036201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"7","sd":"19","ey":"2023","em":"8","ed":"20","id":"Equip031201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"2","sd":"23","ey":"2023","em":"3","ed":"7","id":"Equip036201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"5","sd":"5","ey":"2023","em":"5","ed":"15","id":"Equip032201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006},{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006}</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" ref="R5" si="15">IF(P5&lt;&gt;1,"",
@@ -2856,7 +2936,7 @@
 &amp;IF(LEN(M5)=0,"",","""&amp;M$1&amp;""":"&amp;M5)
 &amp;IF(LEN(N5)=0,"",","""&amp;N$1&amp;""":"&amp;N5)
 &amp;IF(LEN(O5)=0,"",","""&amp;O$1&amp;""":"&amp;O5)&amp;"}")</f>
-        <v>{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":100,"count":20,"price":700,"ov":0.006}</v>
+        <v>{"sy":"2023","sm":"6","sd":"5","ey":"2023","em":"6","ed":"25","id":"Equip037201","sc":50,"ssc":80,"count":20,"price":700,"ov":0.006}</v>
       </c>
     </row>
   </sheetData>
